--- a/Reports/eMO.xlsx
+++ b/Reports/eMO.xlsx
@@ -450,6 +450,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
